--- a/Proj.VVL/bin/x86/Debug/net8.0-windows/Data/Recommand_Ticker.xlsx
+++ b/Proj.VVL/bin/x86/Debug/net8.0-windows/Data/Recommand_Ticker.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>1111</t>
+  </si>
+  <si>
+    <t>하이닉스</t>
+  </si>
+  <si>
+    <t>000660</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>1111111</t>
   </si>
 </sst>
 </file>
@@ -383,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
       <selection activeCell="A202" sqref="A202:XFD202"/>
@@ -413,6 +425,22 @@
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Proj.VVL/bin/x86/Debug/net8.0-windows/Data/Recommand_Ticker.xlsx
+++ b/Proj.VVL/bin/x86/Debug/net8.0-windows/Data/Recommand_Ticker.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -30,22 +30,10 @@
     <t>Code</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
     <t>하이닉스</t>
   </si>
   <si>
     <t>000660</t>
-  </si>
-  <si>
-    <t>삼성전자</t>
-  </si>
-  <si>
-    <t>1111111</t>
   </si>
 </sst>
 </file>
@@ -395,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
       <selection activeCell="A202" sqref="A202:XFD202"/>
@@ -416,31 +404,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Proj.VVL/bin/x86/Debug/net8.0-windows/Data/Recommand_Ticker.xlsx
+++ b/Proj.VVL/bin/x86/Debug/net8.0-windows/Data/Recommand_Ticker.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,24 @@
   </si>
   <si>
     <t>000660</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>005930</t>
+  </si>
+  <si>
+    <t>한화에어로스페이스</t>
+  </si>
+  <si>
+    <t>012450</t>
+  </si>
+  <si>
+    <t>파마리서치</t>
+  </si>
+  <si>
+    <t>214450</t>
   </si>
 </sst>
 </file>
@@ -383,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
       <selection activeCell="A202" sqref="A202:XFD202"/>
@@ -405,6 +423,30 @@
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
